--- a/model_evaluations.xlsx
+++ b/model_evaluations.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1680486291988199</v>
+        <v>0.008385555716303728</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.000121552497059696</v>
+        <v>0.07495212848405852</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/model_evaluations.xlsx
+++ b/model_evaluations.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008385555716303728</v>
+        <v>0.146658249084617</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07495212848405852</v>
+        <v>0.1791277310152607</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/model_evaluations.xlsx
+++ b/model_evaluations.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1689611015275245</v>
+        <v>0.1936485397700729</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2770818154027975</v>
+        <v>0.2448579790415412</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/model_evaluations.xlsx
+++ b/model_evaluations.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1936485397700729</v>
+        <v>0.2410905160257688</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2448579790415412</v>
+        <v>0.1508158451471305</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
